--- a/data/trans_camb/P16B15-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16B15-Edad-trans_camb.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16B15-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16B15-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>47,33</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,99</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>46,43</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>46,43</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>46,89</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>20,59</t>
         </is>
       </c>
     </row>
@@ -795,17 +795,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 100,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-69,34; 100,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 100,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -815,12 +815,12 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 100,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-54,11; 73,24</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>89,86%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,66%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>86,67%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>86,67%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>88,3%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>38,76%</t>
         </is>
       </c>
     </row>
@@ -891,7 +891,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -918,27 +918,27 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
+          <t>-6,83</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="F12" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
+      <c r="G12" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,33</t>
         </is>
       </c>
     </row>
@@ -956,7 +956,7 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,78; 0,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -976,7 +976,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,56; 0,0</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,83%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,33%</t>
         </is>
       </c>
     </row>
@@ -1032,7 +1032,7 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,78; 0,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1052,7 +1052,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,56; 0,0</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>2,06</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>4,1</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
+      <c r="F16" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,25</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,21</t>
         </is>
       </c>
     </row>
@@ -1107,12 +1107,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,06; 19,16</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 20,09</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1127,12 +1127,12 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,92; 8,85</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 11,01</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,15%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,27%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,28%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,26%</t>
         </is>
       </c>
     </row>
@@ -1183,12 +1183,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,06; 23,6</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 25,14</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1203,12 +1203,12 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,91; 9,71</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 12,37</t>
         </is>
       </c>
     </row>
@@ -1225,32 +1225,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t>1,57</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-1,14</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,04</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,73</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,04</t>
         </is>
       </c>
     </row>
@@ -1263,12 +1263,12 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 6,89</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,68; 3,51</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
@@ -1278,17 +1278,17 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,26; 0,0</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 3,94</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,99; 1,4</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1301,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,6%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,16%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,04%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,74%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,05%</t>
         </is>
       </c>
     </row>
@@ -1339,12 +1339,12 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 7,4</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,77; 3,69</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
@@ -1354,17 +1354,17 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,26; 0,0</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 4,1</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,01; 1,34</t>
         </is>
       </c>
     </row>
@@ -1391,22 +1391,22 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,65</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,63</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,45</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,44</t>
         </is>
       </c>
     </row>
@@ -1429,22 +1429,22 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,44; 3,37</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,46; 3,27</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,25; 2,06</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,26; 2,12</t>
         </is>
       </c>
     </row>
@@ -1457,32 +1457,32 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,66%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,64%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,45%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,44%</t>
         </is>
       </c>
     </row>
@@ -1505,22 +1505,22 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,44; 3,5</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,46; 3,38</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,25; 2,1</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,26; 2,17</t>
         </is>
       </c>
     </row>
@@ -1537,32 +1537,32 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,26</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,46</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,96</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,3</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,12; 3,91</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,04; 2,64</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,17; 2,35</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,72; 2,06</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,19; 2,24</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,76; 1,57</t>
         </is>
       </c>
     </row>
@@ -1613,32 +1613,32 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,28%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,16%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,76%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,47%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,97%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,31%</t>
         </is>
       </c>
     </row>
@@ -1651,32 +1651,32 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,12; 4,07</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,05; 2,73</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,17; 2,41</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,73; 2,11</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,19; 2,29</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,76; 1,61</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16B15-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16B15-Edad-trans_camb.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -747,7 +747,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -903,7 +903,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1059,7 +1059,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1215,7 +1215,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1371,7 +1371,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1391,22 +1391,22 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,65</t>
+          <t>2,11</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,63</t>
+          <t>1,15</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,45</t>
+          <t>1,32</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,44</t>
+          <t>0,81</t>
         </is>
       </c>
     </row>
@@ -1429,22 +1429,22 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 3,37</t>
+          <t>0,0; 7,33</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 3,27</t>
+          <t>-0,97; 5,37</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 2,06</t>
+          <t>0,0; 4,0</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 2,12</t>
+          <t>-0,85; 3,92</t>
         </is>
       </c>
     </row>
@@ -1467,22 +1467,22 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>0,66%</t>
+          <t>2,16%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>0,64%</t>
+          <t>1,17%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>0,45%</t>
+          <t>1,34%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>0,44%</t>
+          <t>0,82%</t>
         </is>
       </c>
     </row>
@@ -1505,29 +1505,29 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 3,5</t>
+          <t>0,0; 7,91</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 3,38</t>
+          <t>-0,97; 5,72</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 2,1</t>
+          <t>0,0; 4,17</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 2,17</t>
+          <t>-0,86; 4,08</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1537,32 +1537,32 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>1,26</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>-0,79</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,46</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,96</t>
+          <t>-0,5</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,3</t>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 3,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 2,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 2,35</t>
+          <t>-3,96; 0,0</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 2,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>0,19; 2,24</t>
+          <t>-2,56; 0,0</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 1,57</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1613,32 +1613,32 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>1,28%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>0,16%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>0,76%</t>
+          <t>-0,79%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>0,47%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>0,97%</t>
+          <t>-0,5%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>0,31%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1651,44 +1651,201 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>-3,96; 0,0</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>-2,56; 0,0</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>1,26</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>0,15</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>0,75</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>0,46</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>0,96</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>0,3</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>-0,12; 3,91</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>-2,04; 2,64</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>-0,17; 2,35</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>-0,72; 2,06</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>0,19; 2,24</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>-0,76; 1,57</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>1,28%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>0,16%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>0,76%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>0,47%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>0,97%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>0,31%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
           <t>-0,12; 4,07</t>
         </is>
       </c>
-      <c r="D31" s="2" t="inlineStr">
+      <c r="D35" s="2" t="inlineStr">
         <is>
           <t>-2,05; 2,73</t>
         </is>
       </c>
-      <c r="E31" s="2" t="inlineStr">
+      <c r="E35" s="2" t="inlineStr">
         <is>
           <t>-0,17; 2,41</t>
         </is>
       </c>
-      <c r="F31" s="2" t="inlineStr">
+      <c r="F35" s="2" t="inlineStr">
         <is>
           <t>-0,73; 2,11</t>
         </is>
       </c>
-      <c r="G31" s="2" t="inlineStr">
+      <c r="G35" s="2" t="inlineStr">
         <is>
           <t>0,19; 2,29</t>
         </is>
       </c>
-      <c r="H31" s="2" t="inlineStr">
+      <c r="H35" s="2" t="inlineStr">
         <is>
           <t>-0,76; 1,61</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="C1:D1"/>

--- a/data/trans_camb/P16B15-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16B15-Edad-trans_camb.xlsx
@@ -820,7 +820,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-54,11; 73,24</t>
+          <t>-54,07; 72,74</t>
         </is>
       </c>
     </row>
@@ -896,7 +896,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-58,26; —</t>
         </is>
       </c>
     </row>
@@ -956,7 +956,7 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-27,78; 0,0</t>
+          <t>-39,21; 0,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -976,7 +976,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-24,56; 0,0</t>
+          <t>-26,13; 0,0</t>
         </is>
       </c>
     </row>
@@ -1032,7 +1032,7 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-27,78; 0,0</t>
+          <t>-39,21; 0,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1052,7 +1052,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-24,56; 0,0</t>
+          <t>-26,13; 0,0</t>
         </is>
       </c>
     </row>
@@ -1107,12 +1107,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,06; 19,16</t>
+          <t>-3,95; 19,7</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 20,09</t>
+          <t>0,0; 20,08</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1127,12 +1127,12 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,92; 8,85</t>
+          <t>-1,9; 8,85</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,01</t>
+          <t>0,0; 10,89</t>
         </is>
       </c>
     </row>
@@ -1183,12 +1183,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-4,06; 23,6</t>
+          <t>-3,96; 24,19</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 25,14</t>
+          <t>0,0; 25,12</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1203,12 +1203,12 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 9,71</t>
+          <t>-1,9; 9,71</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,37</t>
+          <t>0,0; 12,23</t>
         </is>
       </c>
     </row>
@@ -1263,12 +1263,12 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,89</t>
+          <t>0,0; 7,51</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-6,68; 3,51</t>
+          <t>-5,52; 3,31</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
@@ -1278,17 +1278,17 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-4,26; 0,0</t>
+          <t>-5,76; 0,0</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,94</t>
+          <t>0,0; 3,55</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-3,99; 1,4</t>
+          <t>-3,55; 1,45</t>
         </is>
       </c>
     </row>
@@ -1339,12 +1339,12 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,4</t>
+          <t>0,0; 8,12</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-6,77; 3,69</t>
+          <t>-5,53; 3,41</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
@@ -1354,17 +1354,17 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-4,26; 0,0</t>
+          <t>-5,76; 0,0</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,1</t>
+          <t>0,0; 3,68</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-4,01; 1,34</t>
+          <t>-3,56; 1,41</t>
         </is>
       </c>
     </row>
@@ -1429,22 +1429,22 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,33</t>
+          <t>0,0; 7,38</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 5,37</t>
+          <t>-0,99; 6,33</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,0</t>
+          <t>0,0; 4,63</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 3,92</t>
+          <t>-0,87; 3,52</t>
         </is>
       </c>
     </row>
@@ -1505,22 +1505,22 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,91</t>
+          <t>0,0; 7,96</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 5,72</t>
+          <t>-0,99; 6,76</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,17</t>
+          <t>0,0; 4,86</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 4,08</t>
+          <t>-0,87; 3,67</t>
         </is>
       </c>
     </row>
@@ -1585,7 +1585,7 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-3,96; 0,0</t>
+          <t>-3,94; 0,0</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
@@ -1595,7 +1595,7 @@
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-2,56; 0,0</t>
+          <t>-2,54; 0,0</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
@@ -1661,7 +1661,7 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-3,96; 0,0</t>
+          <t>-3,94; 0,0</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-2,56; 0,0</t>
+          <t>-2,54; 0,0</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
@@ -1731,32 +1731,32 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 3,91</t>
+          <t>-0,14; 4,02</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 2,64</t>
+          <t>-1,76; 2,82</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 2,35</t>
+          <t>-0,16; 2,46</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 2,06</t>
+          <t>-0,74; 1,87</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>0,19; 2,24</t>
+          <t>0,11; 2,27</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 1,57</t>
+          <t>-0,82; 1,51</t>
         </is>
       </c>
     </row>
@@ -1807,32 +1807,32 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 4,07</t>
+          <t>-0,14; 4,21</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-2,05; 2,73</t>
+          <t>-1,78; 2,93</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 2,41</t>
+          <t>-0,16; 2,53</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 2,11</t>
+          <t>-0,74; 1,92</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>0,19; 2,29</t>
+          <t>0,11; 2,33</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 1,61</t>
+          <t>-0,83; 1,54</t>
         </is>
       </c>
     </row>
